--- a/biology/Histoire de la zoologie et de la botanique/William_Whitman_Bailey/William_Whitman_Bailey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Whitman_Bailey/William_Whitman_Bailey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Whitman Bailey est un chimiste et botaniste américain, né le 22 février 1843 à West Point dans l’État de New York et mort le 20 février 1914 à Providence (Rhode Island).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le plus jeune enfant du professeur de chimie et de géologie à l’Académie militaire de West Point, Jacob Whitman Bailey, et de Maria Slaughter. À l’âge de 9 ans, il perd sa mère et sa sœur victimes d'un naufrage, expérience qui le marquera toute sa vie et qui minera sa santé.
 Il quitte West Point en 1857, après la mort de son père, et va à Providence où il entre à l’University Grammar School. En 1860, il entre à la Brown University. En 1862, il s’engage brièvement dans le 10e régiment de volontaires de Rhode Island durant la guerre de Sécession. Mais sa santé est mauvaise et il revient à Providence au bout de trois mois.
@@ -547,7 +561,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1881 : The Botanical Collector’s Notebook.
 1895 : Among Rhode Island Wild Flowers.
@@ -581,7 +597,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Keir B. Sterling, Richard P. Harmond, George A. Cevasco &amp; Lorne F. Hammond (dir.) (1997). Biographical dictionary of American and Canadian naturalists and environmentalists. Greenwood Press (Westport) : xix + 937 p.  (ISBN 0-313-23047-1)</t>
         </is>
